--- a/Mechanical/Corner Steering/Corner Steering Parts List.xlsx
+++ b/Mechanical/Corner Steering/Corner Steering Parts List.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ejunkins\Desktop\open_source_rover\Documentation\Mechanical Assembly\Corner Steering\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ejunkins\Desktop\osr\Mechanical\Corner Steering\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="64">
   <si>
     <t>Part</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Link</t>
   </si>
   <si>
-    <t>3D Printed Encoder Mounts</t>
-  </si>
-  <si>
     <t>Makexyz</t>
   </si>
   <si>
@@ -213,6 +210,12 @@
   </si>
   <si>
     <t>Total with 3D printer (but not material cost)</t>
+  </si>
+  <si>
+    <t>3D Printed Encoder Mounts*</t>
+  </si>
+  <si>
+    <t>*Files can be found in the 3D printed Parts folder</t>
   </si>
 </sst>
 </file>
@@ -378,7 +381,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -494,6 +497,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="44" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -778,25 +784,25 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" style="4" customWidth="1"/>
-    <col min="2" max="3" width="8.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.86328125" style="4" customWidth="1"/>
+    <col min="2" max="3" width="8.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.73046875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1328125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.86328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.73046875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.265625" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="78" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="4"/>
+    <col min="12" max="16384" width="9.1328125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -831,9 +837,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="33" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="B2" s="34">
         <v>4</v>
@@ -845,16 +851,16 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="G2" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="H2" s="36" t="s">
         <v>14</v>
-      </c>
-      <c r="H2" s="36" t="s">
-        <v>15</v>
       </c>
       <c r="I2" s="37">
         <v>12.9</v>
@@ -864,12 +870,12 @@
         <v>51.6</v>
       </c>
       <c r="K2" s="38" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="29">
         <v>300</v>
@@ -881,16 +887,16 @@
         <v>100</v>
       </c>
       <c r="E3" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="G3" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="H3" s="29" t="s">
         <v>19</v>
-      </c>
-      <c r="H3" s="29" t="s">
-        <v>20</v>
       </c>
       <c r="I3" s="31">
         <v>3.45</v>
@@ -900,13 +906,13 @@
         <v>10.350000000000001</v>
       </c>
       <c r="K3" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N3" s="17"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="25">
         <v>100</v>
@@ -918,16 +924,16 @@
         <v>100</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="26" t="s">
-        <v>23</v>
-      </c>
       <c r="H4" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I4" s="24">
         <v>5.83</v>
@@ -937,12 +943,12 @@
         <v>5.83</v>
       </c>
       <c r="K4" s="27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="11">
         <v>16</v>
@@ -954,16 +960,16 @@
         <v>1</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="12" t="s">
-        <v>26</v>
-      </c>
       <c r="H5" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I5" s="9">
         <v>0.23</v>
@@ -973,12 +979,12 @@
         <v>3.68</v>
       </c>
       <c r="K5" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A6" s="5" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="B6" s="6">
         <v>8</v>
@@ -990,16 +996,16 @@
         <v>1</v>
       </c>
       <c r="E6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="G6" s="5">
         <v>535110</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I6" s="9">
         <v>5.99</v>
@@ -1009,12 +1015,12 @@
         <v>47.92</v>
       </c>
       <c r="K6" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A7" s="5" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="B7" s="6">
         <v>4</v>
@@ -1026,16 +1032,16 @@
         <v>1</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G7" s="5">
         <v>634066</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I7" s="9">
         <v>1.49</v>
@@ -1045,12 +1051,12 @@
         <v>5.96</v>
       </c>
       <c r="K7" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A8" s="5" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="B8" s="6">
         <v>4</v>
@@ -1062,16 +1068,16 @@
         <v>1</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G8" s="5">
         <v>625049</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I8" s="9">
         <v>4.99</v>
@@ -1081,12 +1087,12 @@
         <v>19.96</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="6">
         <v>4</v>
@@ -1098,16 +1104,16 @@
         <v>1</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G9" s="14">
         <v>615362</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I9" s="9">
         <v>7.99</v>
@@ -1117,12 +1123,12 @@
         <v>31.96</v>
       </c>
       <c r="K9" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A10" s="5" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="B10" s="11">
         <v>4</v>
@@ -1134,16 +1140,16 @@
         <v>1</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G10" s="15">
         <v>555104</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I10" s="9">
         <v>3.99</v>
@@ -1153,12 +1159,12 @@
         <v>15.96</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B11" s="11">
         <v>16</v>
@@ -1170,16 +1176,16 @@
         <v>4</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G11" s="16">
         <v>633126</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I11" s="9">
         <v>1.79</v>
@@ -1189,12 +1195,12 @@
         <v>7.16</v>
       </c>
       <c r="K11" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="5" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="B12" s="6">
         <v>4</v>
@@ -1206,16 +1212,16 @@
         <v>1</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G12" s="5">
         <v>585442</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I12" s="9">
         <v>3.99</v>
@@ -1225,13 +1231,13 @@
         <v>15.96</v>
       </c>
       <c r="K12" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="N12" s="17"/>
+    </row>
+    <row r="13" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="N12" s="17"/>
-    </row>
-    <row r="13" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="B13" s="6">
         <v>4</v>
@@ -1243,16 +1249,16 @@
         <v>1</v>
       </c>
       <c r="E13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="G13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="8" t="s">
         <v>50</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>51</v>
       </c>
       <c r="I13" s="9">
         <v>19.95</v>
@@ -1262,13 +1268,13 @@
         <v>79.8</v>
       </c>
       <c r="K13" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="N13" s="17"/>
+    </row>
+    <row r="14" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="N13" s="17"/>
-    </row>
-    <row r="14" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="B14" s="6">
         <v>4</v>
@@ -1280,16 +1286,16 @@
         <v>1</v>
       </c>
       <c r="E14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="G14" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>56</v>
-      </c>
       <c r="H14" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I14" s="20">
         <v>55</v>
@@ -1299,25 +1305,28 @@
         <v>220</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A16" s="43" t="s">
+        <v>63</v>
+      </c>
       <c r="J16" s="39">
         <f>SUM(J2:J14)</f>
         <v>516.1400000000001</v>
       </c>
       <c r="K16" s="40" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="10:11" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="10:11" x14ac:dyDescent="0.45">
       <c r="J17" s="41">
         <f>SUM(J3:J14)</f>
         <v>464.54</v>
       </c>
       <c r="K17" s="42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Mechanical/Corner Steering/Corner Steering Parts List.xlsx
+++ b/Mechanical/Corner Steering/Corner Steering Parts List.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="67">
   <si>
     <t>Part</t>
   </si>
@@ -216,6 +216,15 @@
   </si>
   <si>
     <t>*Files can be found in the 3D printed Parts folder</t>
+  </si>
+  <si>
+    <t>The cost information contained in this document is of a budgetary and planning nature and is intended for informational purposes only.  It does not constitute a commitment on the part of JPL and/or Caltech.</t>
+  </si>
+  <si>
+    <t>Author: Eric Junkins, Jet Propulsion Laboratory, California Institute of Technology</t>
+  </si>
+  <si>
+    <t>© 2018 California Institute of Technology. Government sponsorship acknowledged</t>
   </si>
 </sst>
 </file>
@@ -263,6 +272,7 @@
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -276,6 +286,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -325,7 +336,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -376,12 +387,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -499,6 +528,27 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -781,10 +831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -802,546 +852,597 @@
     <col min="12" max="16384" width="9.1328125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" ht="32.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+    </row>
+    <row r="2" spans="1:14" ht="27.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+    </row>
+    <row r="3" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+    </row>
+    <row r="4" spans="1:14" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A2" s="33" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A5" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="34">
-        <v>4</v>
-      </c>
-      <c r="C2" s="34">
-        <v>4</v>
-      </c>
-      <c r="D2" s="35">
+      <c r="B5" s="34">
+        <v>4</v>
+      </c>
+      <c r="C5" s="34">
+        <v>4</v>
+      </c>
+      <c r="D5" s="35">
         <v>1</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E5" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F5" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G5" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H5" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="37">
+      <c r="I5" s="37">
         <v>12.9</v>
       </c>
-      <c r="J2" s="37">
-        <f t="shared" ref="J2:J12" si="0">B2/D2*I2</f>
+      <c r="J5" s="37">
+        <f t="shared" ref="J5:J15" si="0">B5/D5*I5</f>
         <v>51.6</v>
       </c>
-      <c r="K2" s="38" t="s">
+      <c r="K5" s="38" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="28" t="s">
+    <row r="6" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B6" s="29">
         <v>300</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C6" s="29">
         <v>24</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D6" s="30">
         <v>100</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E6" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F6" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G6" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="H6" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="31">
+      <c r="I6" s="31">
         <v>3.45</v>
       </c>
-      <c r="J3" s="31">
-        <f>B3/D3*I3</f>
+      <c r="J6" s="31">
+        <f>B6/D6*I6</f>
         <v>10.350000000000001</v>
       </c>
-      <c r="K3" s="32" t="s">
+      <c r="K6" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="17"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A4" s="21" t="s">
+      <c r="N6" s="17"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A7" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B7" s="25">
         <v>100</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C7" s="25">
         <v>16</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D7" s="23">
         <v>100</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E7" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F7" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G7" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H7" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="24">
+      <c r="I7" s="24">
         <v>5.83</v>
       </c>
-      <c r="J4" s="24">
+      <c r="J7" s="24">
         <f t="shared" si="0"/>
         <v>5.83</v>
       </c>
-      <c r="K4" s="27" t="s">
+      <c r="K7" s="27" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A5" s="5" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B8" s="11">
         <v>16</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C8" s="11">
         <v>16</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D8" s="7">
         <v>1</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F8" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G8" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I8" s="9">
         <v>0.23</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J8" s="9">
         <f t="shared" si="0"/>
         <v>3.68</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K8" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A6" s="5" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B9" s="6">
         <v>8</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C9" s="6">
         <v>8</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D9" s="7">
         <v>1</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G9" s="5">
         <v>535110</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I9" s="9">
         <v>5.99</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J9" s="9">
         <f t="shared" si="0"/>
         <v>47.92</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K9" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A7" s="5" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="6">
-        <v>4</v>
-      </c>
-      <c r="C7" s="6">
-        <v>4</v>
-      </c>
-      <c r="D7" s="7">
+      <c r="B10" s="6">
+        <v>4</v>
+      </c>
+      <c r="C10" s="6">
+        <v>4</v>
+      </c>
+      <c r="D10" s="7">
         <v>1</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G10" s="5">
         <v>634066</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I10" s="9">
         <v>1.49</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J10" s="9">
         <f t="shared" si="0"/>
         <v>5.96</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K10" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A8" s="5" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="6">
-        <v>4</v>
-      </c>
-      <c r="C8" s="6">
-        <v>4</v>
-      </c>
-      <c r="D8" s="7">
+      <c r="B11" s="6">
+        <v>4</v>
+      </c>
+      <c r="C11" s="6">
+        <v>4</v>
+      </c>
+      <c r="D11" s="7">
         <v>1</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F11" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G11" s="5">
         <v>625049</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I11" s="9">
         <v>4.99</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J11" s="9">
         <f t="shared" si="0"/>
         <v>19.96</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K11" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A9" s="5" t="s">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="6">
-        <v>4</v>
-      </c>
-      <c r="C9" s="6">
-        <v>4</v>
-      </c>
-      <c r="D9" s="7">
+      <c r="B12" s="6">
+        <v>4</v>
+      </c>
+      <c r="C12" s="6">
+        <v>4</v>
+      </c>
+      <c r="D12" s="7">
         <v>1</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F12" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G12" s="14">
         <v>615362</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I12" s="9">
         <v>7.99</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J12" s="9">
         <f t="shared" si="0"/>
         <v>31.96</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="K12" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A10" s="5" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="11">
-        <v>4</v>
-      </c>
-      <c r="C10" s="11">
-        <v>4</v>
-      </c>
-      <c r="D10" s="7">
+      <c r="B13" s="11">
+        <v>4</v>
+      </c>
+      <c r="C13" s="11">
+        <v>4</v>
+      </c>
+      <c r="D13" s="7">
         <v>1</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E13" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F13" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G13" s="15">
         <v>555104</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I13" s="9">
         <v>3.99</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J13" s="9">
         <f t="shared" si="0"/>
         <v>15.96</v>
       </c>
-      <c r="K10" s="13" t="s">
+      <c r="K13" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A11" s="15" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A14" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B14" s="11">
         <v>16</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C14" s="11">
         <v>16</v>
       </c>
-      <c r="D11" s="7">
-        <v>4</v>
-      </c>
-      <c r="E11" s="11" t="s">
+      <c r="D14" s="7">
+        <v>4</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F14" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G14" s="16">
         <v>633126</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H14" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I14" s="9">
         <v>1.79</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J14" s="9">
         <f t="shared" si="0"/>
         <v>7.16</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="K14" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="5" t="s">
+    <row r="15" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="6">
-        <v>4</v>
-      </c>
-      <c r="C12" s="6">
-        <v>4</v>
-      </c>
-      <c r="D12" s="7">
+      <c r="B15" s="6">
+        <v>4</v>
+      </c>
+      <c r="C15" s="6">
+        <v>4</v>
+      </c>
+      <c r="D15" s="7">
         <v>1</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E15" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F15" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G15" s="5">
         <v>585442</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I15" s="9">
         <v>3.99</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J15" s="9">
         <f t="shared" si="0"/>
         <v>15.96</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="K15" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="N12" s="17"/>
-    </row>
-    <row r="13" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="5" t="s">
+      <c r="N15" s="17"/>
+    </row>
+    <row r="16" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="6">
-        <v>4</v>
-      </c>
-      <c r="C13" s="6">
-        <v>4</v>
-      </c>
-      <c r="D13" s="7">
+      <c r="B16" s="6">
+        <v>4</v>
+      </c>
+      <c r="C16" s="6">
+        <v>4</v>
+      </c>
+      <c r="D16" s="7">
         <v>1</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E16" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F16" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H16" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I16" s="9">
         <v>19.95</v>
       </c>
-      <c r="J13" s="9">
-        <f>B13/D13*I13</f>
+      <c r="J16" s="9">
+        <f>B16/D16*I16</f>
         <v>79.8</v>
       </c>
-      <c r="K13" s="18" t="s">
+      <c r="K16" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="N13" s="17"/>
-    </row>
-    <row r="14" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="5" t="s">
+      <c r="N16" s="17"/>
+    </row>
+    <row r="17" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="6">
-        <v>4</v>
-      </c>
-      <c r="C14" s="6">
-        <v>4</v>
-      </c>
-      <c r="D14" s="7">
+      <c r="B17" s="6">
+        <v>4</v>
+      </c>
+      <c r="C17" s="6">
+        <v>4</v>
+      </c>
+      <c r="D17" s="7">
         <v>1</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E17" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F17" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G17" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H17" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I17" s="20">
         <v>55</v>
       </c>
-      <c r="J14" s="9">
-        <f>B14/D14*I14</f>
+      <c r="J17" s="9">
+        <f>B17/D17*I17</f>
         <v>220</v>
       </c>
-      <c r="K14" s="18" t="s">
+      <c r="K17" s="18" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A16" s="43" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A19" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="J16" s="39">
-        <f>SUM(J2:J14)</f>
+      <c r="J19" s="39">
+        <f>SUM(J5:J17)</f>
         <v>516.1400000000001</v>
       </c>
-      <c r="K16" s="40" t="s">
+      <c r="K19" s="40" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="10:11" x14ac:dyDescent="0.45">
-      <c r="J17" s="41">
-        <f>SUM(J3:J14)</f>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J20" s="41">
+        <f>SUM(J6:J17)</f>
         <v>464.54</v>
       </c>
-      <c r="K17" s="42" t="s">
+      <c r="K20" s="42" t="s">
         <v>61</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:L1"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1"/>
-    <hyperlink ref="K6" r:id="rId2"/>
-    <hyperlink ref="K7" r:id="rId3" location="371=276"/>
-    <hyperlink ref="K8" r:id="rId4" location="348=123"/>
-    <hyperlink ref="K9" r:id="rId5"/>
-    <hyperlink ref="K10" r:id="rId6"/>
-    <hyperlink ref="K11" r:id="rId7" location="371=256"/>
-    <hyperlink ref="K12" r:id="rId8"/>
-    <hyperlink ref="K13" r:id="rId9"/>
-    <hyperlink ref="K14" r:id="rId10"/>
-    <hyperlink ref="K3" r:id="rId11" location="92949a144/=18njs1n"/>
+    <hyperlink ref="K5" r:id="rId1"/>
+    <hyperlink ref="K9" r:id="rId2"/>
+    <hyperlink ref="K10" r:id="rId3" location="371=276"/>
+    <hyperlink ref="K11" r:id="rId4" location="348=123"/>
+    <hyperlink ref="K12" r:id="rId5"/>
+    <hyperlink ref="K13" r:id="rId6"/>
+    <hyperlink ref="K14" r:id="rId7" location="371=256"/>
+    <hyperlink ref="K15" r:id="rId8"/>
+    <hyperlink ref="K16" r:id="rId9"/>
+    <hyperlink ref="K17" r:id="rId10"/>
+    <hyperlink ref="K6" r:id="rId11" location="92949a144/=18njs1n"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
